--- a/UZ-REPOS/SPA/EDITION/DOC/HLR/Модель услуг HLR Переадресации v.0.1.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/HLR/Модель услуг HLR Переадресации v.0.1.xlsx
@@ -672,6 +672,42 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,49 +717,13 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:AML37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,23 +1185,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1219,8 +1219,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1233,34 +1233,34 @@
       <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -1275,7 +1275,7 @@
       <c r="F5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
@@ -1283,7 +1283,7 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="F6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="28" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="10"/>
@@ -1307,10 +1307,10 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -1325,7 +1325,7 @@
       <c r="F7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="10"/>
@@ -1333,7 +1333,7 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="F8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="28" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="10"/>
@@ -1357,10 +1357,10 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1375,7 +1375,7 @@
       <c r="F9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="10"/>
@@ -1384,7 +1384,7 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="25" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="28" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="10"/>
@@ -1422,10 +1422,10 @@
       <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -1440,7 +1440,7 @@
       <c r="F11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="11"/>
@@ -1462,7 +1462,7 @@
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="25" t="s">
         <v>37</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="F12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="28" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="11"/>
@@ -1500,10 +1500,10 @@
       <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -1540,8 +1540,8 @@
       <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -1578,7 +1578,7 @@
       <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="25" t="s">
         <v>38</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="D15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="23" t="s">

--- a/UZ-REPOS/SPA/EDITION/DOC/HLR/Модель услуг HLR Переадресации v.0.1.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/HLR/Модель услуг HLR Переадресации v.0.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>Версия</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>any</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +268,14 @@
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -308,15 +317,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -326,68 +333,284 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -402,7 +625,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -420,7 +643,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -429,155 +652,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -594,7 +668,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -630,61 +704,67 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,37 +773,40 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML37"/>
+  <dimension ref="A1:AML41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,23 +1268,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1219,8 +1302,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1233,255 +1316,213 @@
       <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>40</v>
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="23" t="s">
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>40</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>33</v>
+      <c r="A10" s="47"/>
+      <c r="B10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="25" t="s">
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1499,29 +1540,21 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11"/>
+    <row r="13" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1539,25 +1572,27 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>13</v>
+    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
@@ -1577,25 +1612,25 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>13</v>
+    <row r="15" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
@@ -1615,14 +1650,20 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+    <row r="16" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1641,16 +1682,30 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:1026" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1667,16 +1722,28 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:1026" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1693,16 +1760,28 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:1026" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1719,7 +1798,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="10"/>
@@ -1728,7 +1807,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1745,7 +1824,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="10"/>
@@ -1771,7 +1850,7 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
     </row>
-    <row r="22" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="10"/>
@@ -1797,13 +1876,13 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
     </row>
-    <row r="23" spans="1:1026" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1823,13 +1902,13 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
     </row>
-    <row r="24" spans="1:1026" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1849,17 +1928,17 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="1:1026" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1875,17 +1954,17 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="1:1026" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1901,7 +1980,7 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
     </row>
-    <row r="27" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="10"/>
@@ -1911,7 +1990,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -1927,7 +2006,7 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
     </row>
-    <row r="28" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="10"/>
@@ -1937,7 +2016,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -1953,7 +2032,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
     </row>
-    <row r="29" spans="1:1026" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="10"/>
@@ -1979,7 +2058,7 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
     </row>
-    <row r="30" spans="1:1026" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="10"/>
@@ -1992,7 +2071,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -2005,7 +2084,7 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
     </row>
-    <row r="31" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="10"/>
@@ -2018,7 +2097,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -2031,80 +2110,184 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="1:1026" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="ALT32"/>
-      <c r="ALU32"/>
-      <c r="ALV32"/>
-      <c r="ALW32"/>
-      <c r="ALX32"/>
-      <c r="ALY32"/>
-      <c r="ALZ32"/>
-      <c r="AMA32"/>
-      <c r="AMB32"/>
-      <c r="AMC32"/>
-      <c r="AMD32"/>
-      <c r="AME32"/>
-      <c r="AMF32"/>
-      <c r="AMG32"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-      <c r="AML32"/>
-    </row>
-    <row r="33" spans="1008:1026" x14ac:dyDescent="0.2">
-      <c r="ALT33"/>
-      <c r="ALU33"/>
-      <c r="ALV33"/>
-      <c r="ALW33"/>
-      <c r="ALX33"/>
-      <c r="ALY33"/>
-      <c r="ALZ33"/>
-      <c r="AMA33"/>
-      <c r="AMB33"/>
-      <c r="AMC33"/>
-      <c r="AMD33"/>
-      <c r="AME33"/>
-      <c r="AMF33"/>
-      <c r="AMG33"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-      <c r="AML33"/>
-    </row>
-    <row r="34" spans="1008:1026" x14ac:dyDescent="0.2">
-      <c r="ALT34"/>
-      <c r="ALU34"/>
-      <c r="ALV34"/>
-      <c r="ALW34"/>
-      <c r="ALX34"/>
-      <c r="ALY34"/>
-      <c r="ALZ34"/>
-      <c r="AMA34"/>
-      <c r="AMB34"/>
-      <c r="AMC34"/>
-      <c r="AMD34"/>
-      <c r="AME34"/>
-      <c r="AMF34"/>
-      <c r="AMG34"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-      <c r="AML34"/>
-    </row>
-    <row r="37" spans="1008:1026" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33" spans="1:1026" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="1:1026" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+    </row>
+    <row r="35" spans="1:1026" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+    </row>
+    <row r="36" spans="1:1026" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ALT36"/>
+      <c r="ALU36"/>
+      <c r="ALV36"/>
+      <c r="ALW36"/>
+      <c r="ALX36"/>
+      <c r="ALY36"/>
+      <c r="ALZ36"/>
+      <c r="AMA36"/>
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+      <c r="AMK36"/>
+      <c r="AML36"/>
+    </row>
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.2">
+      <c r="ALT37"/>
+      <c r="ALU37"/>
+      <c r="ALV37"/>
+      <c r="ALW37"/>
+      <c r="ALX37"/>
+      <c r="ALY37"/>
+      <c r="ALZ37"/>
+      <c r="AMA37"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+      <c r="AMK37"/>
+      <c r="AML37"/>
+    </row>
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.2">
+      <c r="ALT38"/>
+      <c r="ALU38"/>
+      <c r="ALV38"/>
+      <c r="ALW38"/>
+      <c r="ALX38"/>
+      <c r="ALY38"/>
+      <c r="ALZ38"/>
+      <c r="AMA38"/>
+      <c r="AMB38"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+      <c r="AMK38"/>
+      <c r="AML38"/>
+    </row>
+    <row r="41" spans="1:1026" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
